--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_o.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>99.69115252494812</v>
+        <v>106.7922523021698</v>
       </c>
       <c r="C2">
-        <v>2.261343250702549</v>
+        <v>0.8080423563953084</v>
       </c>
       <c r="D2">
-        <v>4.877913045883179</v>
+        <v>3.797706985473633</v>
       </c>
       <c r="E2">
-        <v>0.5216978586529089</v>
+        <v>0.1360051446029889</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7067307692307693</v>
+        <v>0.7019230769230769</v>
       </c>
       <c r="K2">
-        <v>0.7163461538461539</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L2">
-        <v>0.7198067632850241</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="M2">
-        <v>0.6763285024154589</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="N2">
-        <v>0.7246376811594203</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="O2">
-        <v>0.7087699739873653</v>
+        <v>0.7123652917131178</v>
       </c>
       <c r="P2">
-        <v>0.01724877261686667</v>
+        <v>0.0105487404680992</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>211.8027292728424</v>
+        <v>234.0721810817718</v>
       </c>
       <c r="C3">
-        <v>9.23260298876532</v>
+        <v>7.730820695832633</v>
       </c>
       <c r="D3">
-        <v>7.131206512451172</v>
+        <v>6.69401249885559</v>
       </c>
       <c r="E3">
-        <v>0.8651449499624508</v>
+        <v>0.6787640625468541</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7115384615384616</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="K3">
-        <v>0.7259615384615384</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L3">
-        <v>0.7246376811594203</v>
+        <v>0.6763285024154589</v>
       </c>
       <c r="M3">
-        <v>0.6859903381642513</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="N3">
-        <v>0.7198067632850241</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O3">
-        <v>0.7135869565217392</v>
+        <v>0.7113944630248978</v>
       </c>
       <c r="P3">
-        <v>0.01469492746386056</v>
+        <v>0.02051462336028612</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>468.544171333313</v>
+        <v>482.8254870891571</v>
       </c>
       <c r="C4">
-        <v>6.8418728082267</v>
+        <v>1.655919582276348</v>
       </c>
       <c r="D4">
-        <v>7.690072536468506</v>
+        <v>7.232512521743774</v>
       </c>
       <c r="E4">
-        <v>0.7830857474934185</v>
+        <v>0.5619891718279055</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -694,25 +694,25 @@
         <v>0.7115384615384616</v>
       </c>
       <c r="K4">
-        <v>0.7259615384615384</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L4">
+        <v>0.6859903381642513</v>
+      </c>
+      <c r="M4">
         <v>0.7246376811594203</v>
       </c>
-      <c r="M4">
-        <v>0.6908212560386473</v>
-      </c>
       <c r="N4">
-        <v>0.7198067632850241</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="O4">
-        <v>0.7145531400966184</v>
+        <v>0.7133221850613156</v>
       </c>
       <c r="P4">
-        <v>0.01289760199460191</v>
+        <v>0.0162996649852217</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>183.5721129894256</v>
+        <v>186.5352755069733</v>
       </c>
       <c r="C5">
-        <v>5.433231851027595</v>
+        <v>5.077180083801864</v>
       </c>
       <c r="D5">
-        <v>8.145375204086303</v>
+        <v>7.909788227081298</v>
       </c>
       <c r="E5">
-        <v>0.7295054203624796</v>
+        <v>0.6918348732168881</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -747,25 +747,25 @@
         <v>0.7067307692307693</v>
       </c>
       <c r="K5">
-        <v>0.7355769230769231</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L5">
-        <v>0.714975845410628</v>
+        <v>0.6859903381642513</v>
       </c>
       <c r="M5">
-        <v>0.6956521739130435</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="N5">
-        <v>0.7198067632850241</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="O5">
-        <v>0.7145484949832777</v>
+        <v>0.7084959123002601</v>
       </c>
       <c r="P5">
-        <v>0.01332827511676838</v>
+        <v>0.01415333334297123</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>360.9103831291199</v>
+        <v>361.4956053256989</v>
       </c>
       <c r="C6">
-        <v>1.645503495564389</v>
+        <v>2.401845249532809</v>
       </c>
       <c r="D6">
-        <v>7.64390606880188</v>
+        <v>7.042441940307617</v>
       </c>
       <c r="E6">
-        <v>1.323350595987055</v>
+        <v>1.290786687633201</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -800,25 +800,25 @@
         <v>0.7115384615384616</v>
       </c>
       <c r="K6">
-        <v>0.7307692307692307</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L6">
-        <v>0.7198067632850241</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="M6">
         <v>0.7053140096618358</v>
       </c>
       <c r="N6">
-        <v>0.7342995169082126</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O6">
-        <v>0.7203455964325529</v>
+        <v>0.7094574507617987</v>
       </c>
       <c r="P6">
-        <v>0.01101969706003753</v>
+        <v>0.005708645863995484</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>724.3034638881684</v>
+        <v>721.6107192993164</v>
       </c>
       <c r="C7">
-        <v>4.325835614385017</v>
+        <v>6.85805084552851</v>
       </c>
       <c r="D7">
-        <v>8.785468149185181</v>
+        <v>8.008337450027465</v>
       </c>
       <c r="E7">
-        <v>0.616543571380915</v>
+        <v>1.143546433035177</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,28 +850,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7067307692307693</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K7">
-        <v>0.7355769230769231</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L7">
-        <v>0.714975845410628</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M7">
-        <v>0.7004830917874396</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N7">
-        <v>0.714975845410628</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O7">
-        <v>0.7145484949832777</v>
+        <v>0.710418989223337</v>
       </c>
       <c r="P7">
-        <v>0.01184493518655172</v>
+        <v>0.008264026092943497</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>249.5031154155731</v>
+        <v>248.5089789390564</v>
       </c>
       <c r="C8">
-        <v>3.766049219866209</v>
+        <v>3.082570500620941</v>
       </c>
       <c r="D8">
-        <v>7.521983003616333</v>
+        <v>6.926787853240967</v>
       </c>
       <c r="E8">
-        <v>0.8805129085296229</v>
+        <v>0.9649491115309141</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,25 +903,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7067307692307693</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="K8">
-        <v>0.7307692307692307</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L8">
-        <v>0.714975845410628</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M8">
-        <v>0.7101449275362319</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="N8">
-        <v>0.7246376811594203</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O8">
-        <v>0.717451690821256</v>
+        <v>0.7191099962839094</v>
       </c>
       <c r="P8">
-        <v>0.008982784505443301</v>
+        <v>0.01870678900385241</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>476.5676632881165</v>
+        <v>479.5688953399658</v>
       </c>
       <c r="C9">
-        <v>2.745338835884734</v>
+        <v>1.044572457199595</v>
       </c>
       <c r="D9">
-        <v>8.194450902938843</v>
+        <v>7.345587682723999</v>
       </c>
       <c r="E9">
-        <v>0.8659300219141092</v>
+        <v>0.7086996954755361</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7115384615384616</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="K9">
-        <v>0.7307692307692307</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="L9">
-        <v>0.7053140096618358</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="M9">
         <v>0.7004830917874396</v>
       </c>
       <c r="N9">
-        <v>0.7198067632850241</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="O9">
-        <v>0.7135823114083983</v>
+        <v>0.7113944630248978</v>
       </c>
       <c r="P9">
-        <v>0.0107542148855353</v>
+        <v>0.01590024671344585</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>940.7347223758698</v>
+        <v>943.8480911254883</v>
       </c>
       <c r="C10">
-        <v>8.353920390847032</v>
+        <v>8.143999871020327</v>
       </c>
       <c r="D10">
-        <v>9.13919277191162</v>
+        <v>9.336990928649902</v>
       </c>
       <c r="E10">
-        <v>0.1852593988933361</v>
+        <v>0.3340266821624171</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7115384615384616</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="K10">
-        <v>0.7355769230769231</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L10">
-        <v>0.714975845410628</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="M10">
-        <v>0.6956521739130435</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N10">
-        <v>0.7246376811594203</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="O10">
-        <v>0.7164762170196953</v>
+        <v>0.7133128948346339</v>
       </c>
       <c r="P10">
-        <v>0.01335454817097216</v>
+        <v>0.01297044743185688</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>195.499969959259</v>
+        <v>191.2206001281738</v>
       </c>
       <c r="C11">
-        <v>3.288986883914193</v>
+        <v>2.092540388629909</v>
       </c>
       <c r="D11">
-        <v>8.605635643005371</v>
+        <v>7.381221342086792</v>
       </c>
       <c r="E11">
-        <v>0.2576553266821649</v>
+        <v>0.7908559606339014</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.6971153846153846</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="K11">
-        <v>0.7211538461538461</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L11">
-        <v>0.6956521739130435</v>
+        <v>0.6714975845410628</v>
       </c>
       <c r="M11">
-        <v>0.6908212560386473</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="N11">
-        <v>0.7391304347826086</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="O11">
-        <v>0.708774619100706</v>
+        <v>0.7084912671869193</v>
       </c>
       <c r="P11">
-        <v>0.01846716204440657</v>
+        <v>0.02176566681815769</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>364.1761845588684</v>
+        <v>363.1239602565765</v>
       </c>
       <c r="C12">
-        <v>12.21906111419545</v>
+        <v>8.324100534320491</v>
       </c>
       <c r="D12">
-        <v>9.041343021392823</v>
+        <v>8.43060827255249</v>
       </c>
       <c r="E12">
-        <v>0.4380687485128128</v>
+        <v>0.4344273881212748</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.7019230769230769</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="K12">
-        <v>0.7259615384615384</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
         <v>0.7053140096618358</v>
       </c>
-      <c r="M12">
-        <v>0.6908212560386473</v>
-      </c>
       <c r="N12">
-        <v>0.7198067632850241</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O12">
-        <v>0.7087653288740245</v>
+        <v>0.7104282794500186</v>
       </c>
       <c r="P12">
-        <v>0.01263598562848268</v>
+        <v>0.02623702292275577</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>706.9128888130188</v>
+        <v>718.0241975784302</v>
       </c>
       <c r="C13">
-        <v>5.121122955971224</v>
+        <v>9.592927345652619</v>
       </c>
       <c r="D13">
-        <v>8.79499273300171</v>
+        <v>7.911389589309692</v>
       </c>
       <c r="E13">
-        <v>0.6877243067884793</v>
+        <v>0.1778376502958905</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.7019230769230769</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="K13">
-        <v>0.7163461538461539</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="L13">
-        <v>0.7004830917874396</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="M13">
-        <v>0.6908212560386473</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N13">
-        <v>0.7246376811594203</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O13">
-        <v>0.7068422519509476</v>
+        <v>0.7104143441099963</v>
       </c>
       <c r="P13">
-        <v>0.01206905930807687</v>
+        <v>0.01946537281109365</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>273.3426259994507</v>
+        <v>278.2385417938232</v>
       </c>
       <c r="C14">
-        <v>5.288397879916107</v>
+        <v>6.613388586187697</v>
       </c>
       <c r="D14">
-        <v>8.334558486938477</v>
+        <v>8.565961456298828</v>
       </c>
       <c r="E14">
-        <v>0.6684437720992327</v>
+        <v>0.3037106408111251</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.7259615384615384</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="K14">
-        <v>0.7355769230769231</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L14">
-        <v>0.7004830917874396</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="M14">
-        <v>0.6811594202898551</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="N14">
-        <v>0.7294685990338164</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="O14">
-        <v>0.7145299145299145</v>
+        <v>0.7123838721664809</v>
       </c>
       <c r="P14">
-        <v>0.02053156596162796</v>
+        <v>0.01744744145323239</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>541.4671009540558</v>
+        <v>537.9391956806182</v>
       </c>
       <c r="C15">
-        <v>5.959977150389682</v>
+        <v>8.318331575060945</v>
       </c>
       <c r="D15">
-        <v>8.678306150436402</v>
+        <v>8.33132848739624</v>
       </c>
       <c r="E15">
-        <v>0.2096870512307107</v>
+        <v>0.5875469981666556</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.7211538461538461</v>
+        <v>0.7019230769230769</v>
       </c>
       <c r="K15">
-        <v>0.7307692307692307</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L15">
         <v>0.6859903381642513</v>
       </c>
       <c r="M15">
-        <v>0.6908212560386473</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="N15">
         <v>0.7246376811594203</v>
       </c>
       <c r="O15">
-        <v>0.7106744704570792</v>
+        <v>0.7113991081382386</v>
       </c>
       <c r="P15">
-        <v>0.01850429393361901</v>
+        <v>0.01581113611072873</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1083.67212305069</v>
+        <v>1067.030068731308</v>
       </c>
       <c r="C16">
-        <v>14.12125210280234</v>
+        <v>16.4760391940164</v>
       </c>
       <c r="D16">
-        <v>8.656616640090942</v>
+        <v>8.793150901794434</v>
       </c>
       <c r="E16">
-        <v>0.8872551322482</v>
+        <v>0.09252261715214367</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.7067307692307693</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K16">
-        <v>0.7259615384615384</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="L16">
-        <v>0.6859903381642513</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M16">
-        <v>0.6859903381642513</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="N16">
         <v>0.7246376811594203</v>
       </c>
       <c r="O16">
-        <v>0.7058621330360462</v>
+        <v>0.7152499070977332</v>
       </c>
       <c r="P16">
-        <v>0.01758998747858348</v>
+        <v>0.0101482321748007</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>369.3694807529449</v>
+        <v>364.4926609992981</v>
       </c>
       <c r="C17">
-        <v>7.722259469461904</v>
+        <v>6.59894930140746</v>
       </c>
       <c r="D17">
-        <v>8.686012840270996</v>
+        <v>7.851867628097534</v>
       </c>
       <c r="E17">
-        <v>0.5183034406706585</v>
+        <v>0.5365176364166786</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.7211538461538461</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="K17">
-        <v>0.7259615384615384</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L17">
         <v>0.6908212560386473</v>
       </c>
       <c r="M17">
-        <v>0.6763285024154589</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="N17">
-        <v>0.7246376811594203</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O17">
-        <v>0.7077805648457822</v>
+        <v>0.7017558528428094</v>
       </c>
       <c r="P17">
-        <v>0.02034898135686244</v>
+        <v>0.01403714823577004</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>725.6096710205078</v>
+        <v>714.2029617786408</v>
       </c>
       <c r="C18">
-        <v>9.280100272426662</v>
+        <v>10.9858157291403</v>
       </c>
       <c r="D18">
-        <v>9.008160161972047</v>
+        <v>8.625798177719116</v>
       </c>
       <c r="E18">
-        <v>0.3693001989001835</v>
+        <v>0.1239135862384898</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.7115384615384616</v>
+        <v>0.6971153846153846</v>
       </c>
       <c r="K18">
-        <v>0.7115384615384616</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L18">
-        <v>0.6859903381642513</v>
+        <v>0.6763285024154589</v>
       </c>
       <c r="M18">
-        <v>0.6811594202898551</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N18">
-        <v>0.7294685990338164</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="O18">
-        <v>0.7039390561129693</v>
+        <v>0.701741917502787</v>
       </c>
       <c r="P18">
-        <v>0.01793503705948622</v>
+        <v>0.01675520391543006</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1428.660037755966</v>
+        <v>1404.474005270004</v>
       </c>
       <c r="C19">
-        <v>20.94119998179474</v>
+        <v>22.19009130435735</v>
       </c>
       <c r="D19">
-        <v>9.396017122268677</v>
+        <v>8.761219263076782</v>
       </c>
       <c r="E19">
-        <v>0.29429473582351</v>
+        <v>0.5602362621547157</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.7115384615384616</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="K19">
-        <v>0.7307692307692307</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L19">
-        <v>0.6811594202898551</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="M19">
-        <v>0.6956521739130435</v>
+        <v>0.7004830917874396</v>
       </c>
       <c r="N19">
-        <v>0.7101449275362319</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O19">
-        <v>0.7058528428093646</v>
+        <v>0.7104282794500186</v>
       </c>
       <c r="P19">
-        <v>0.01664568053436819</v>
+        <v>0.0180086700982142</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>216.5299991130829</v>
+        <v>207.9739655971527</v>
       </c>
       <c r="C20">
-        <v>5.391182847436091</v>
+        <v>6.068903493993228</v>
       </c>
       <c r="D20">
-        <v>8.908759212493896</v>
+        <v>8.017596006393433</v>
       </c>
       <c r="E20">
-        <v>0.2006744014644967</v>
+        <v>0.5145778403758684</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.7067307692307693</v>
+        <v>0.7019230769230769</v>
       </c>
       <c r="K20">
-        <v>0.7259615384615384</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="L20">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="M20">
         <v>0.7004830917874396</v>
       </c>
-      <c r="M20">
-        <v>0.6908212560386473</v>
-      </c>
       <c r="N20">
-        <v>0.714975845410628</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O20">
-        <v>0.7077945001858046</v>
+        <v>0.7094667409884801</v>
       </c>
       <c r="P20">
-        <v>0.01203571545145085</v>
+        <v>0.02024356382071043</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>416.6864482402801</v>
+        <v>404.4415296077728</v>
       </c>
       <c r="C21">
-        <v>15.93341418675143</v>
+        <v>12.66005782513808</v>
       </c>
       <c r="D21">
-        <v>8.72595043182373</v>
+        <v>8.099671983718872</v>
       </c>
       <c r="E21">
-        <v>0.5747630177243028</v>
+        <v>0.6502426250546566</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.7019230769230769</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="K21">
-        <v>0.7211538461538461</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="L21">
-        <v>0.6956521739130435</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="M21">
-        <v>0.6908212560386473</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N21">
-        <v>0.7246376811594203</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O21">
-        <v>0.7068376068376068</v>
+        <v>0.7142883686361948</v>
       </c>
       <c r="P21">
-        <v>0.01362047988088501</v>
+        <v>0.01563979793209635</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>806.3336528778076</v>
+        <v>779.152109670639</v>
       </c>
       <c r="C22">
-        <v>22.10456097836546</v>
+        <v>20.42354646174175</v>
       </c>
       <c r="D22">
-        <v>9.008081960678101</v>
+        <v>9.018625068664551</v>
       </c>
       <c r="E22">
-        <v>0.4150931738294282</v>
+        <v>0.2249825840294165</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.7019230769230769</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="K22">
-        <v>0.7211538461538461</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="L22">
         <v>0.6859903381642513</v>
       </c>
       <c r="M22">
-        <v>0.6956521739130435</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N22">
-        <v>0.7294685990338164</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O22">
-        <v>0.7068376068376068</v>
+        <v>0.7162114455592716</v>
       </c>
       <c r="P22">
-        <v>0.01613066422113191</v>
+        <v>0.01874848767353998</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>307.482060956955</v>
+        <v>299.5153481006622</v>
       </c>
       <c r="C23">
-        <v>12.73544124228343</v>
+        <v>10.40232164749677</v>
       </c>
       <c r="D23">
-        <v>8.426022434234619</v>
+        <v>8.392656993865966</v>
       </c>
       <c r="E23">
-        <v>0.4883032575153863</v>
+        <v>0.2260728904666566</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.7115384615384616</v>
+        <v>0.6971153846153846</v>
       </c>
       <c r="K23">
-        <v>0.7259615384615384</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L23">
         <v>0.6908212560386473</v>
       </c>
       <c r="M23">
-        <v>0.6763285024154589</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="N23">
-        <v>0.714975845410628</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O23">
-        <v>0.7039251207729469</v>
+        <v>0.7191332218506131</v>
       </c>
       <c r="P23">
-        <v>0.01788278386001145</v>
+        <v>0.02071846568281947</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>597.6333552360535</v>
+        <v>585.7843658447266</v>
       </c>
       <c r="C24">
-        <v>19.60277040292671</v>
+        <v>18.50063937356905</v>
       </c>
       <c r="D24">
-        <v>8.851360082626343</v>
+        <v>8.186624193191529</v>
       </c>
       <c r="E24">
-        <v>0.195966801798262</v>
+        <v>0.689280966842503</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.7067307692307693</v>
+        <v>0.6971153846153846</v>
       </c>
       <c r="K24">
-        <v>0.7163461538461539</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="L24">
         <v>0.6908212560386473</v>
       </c>
       <c r="M24">
-        <v>0.6859903381642513</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="N24">
-        <v>0.7198067632850241</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="O24">
-        <v>0.7039390561129691</v>
+        <v>0.7133361204013379</v>
       </c>
       <c r="P24">
-        <v>0.01347402702968556</v>
+        <v>0.01603582741658624</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1205.975698804855</v>
+        <v>1164.978272724152</v>
       </c>
       <c r="C25">
-        <v>33.58906113261398</v>
+        <v>31.05523932594549</v>
       </c>
       <c r="D25">
-        <v>9.155730485916138</v>
+        <v>9.079849576950073</v>
       </c>
       <c r="E25">
-        <v>0.3615049616179625</v>
+        <v>0.4831991367443222</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.7067307692307693</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="K25">
-        <v>0.7211538461538461</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="L25">
-        <v>0.6956521739130435</v>
+        <v>0.6859903381642513</v>
       </c>
       <c r="M25">
-        <v>0.6714975845410628</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N25">
-        <v>0.7198067632850241</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="O25">
-        <v>0.7029682274247492</v>
+        <v>0.7133221850613156</v>
       </c>
       <c r="P25">
-        <v>0.01828844302732499</v>
+        <v>0.0162996649852217</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>414.6348432064057</v>
+        <v>399.0001861572266</v>
       </c>
       <c r="C26">
-        <v>13.84984290499484</v>
+        <v>11.9263362396839</v>
       </c>
       <c r="D26">
-        <v>8.858396816253663</v>
+        <v>8.416403770446777</v>
       </c>
       <c r="E26">
-        <v>0.1600744843104175</v>
+        <v>0.1735824744831911</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1860,25 +1860,25 @@
         <v>0.7019230769230769</v>
       </c>
       <c r="K26">
-        <v>0.7067307692307693</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="L26">
         <v>0.6811594202898551</v>
       </c>
       <c r="M26">
-        <v>0.6714975845410628</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N26">
-        <v>0.7342995169082126</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O26">
-        <v>0.6991220735785953</v>
+        <v>0.7046358231140839</v>
       </c>
       <c r="P26">
-        <v>0.02185845235247861</v>
+        <v>0.01593385192202859</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>802.0719738960266</v>
+        <v>783.6388123512268</v>
       </c>
       <c r="C27">
-        <v>24.22478930327763</v>
+        <v>22.4457715470919</v>
       </c>
       <c r="D27">
-        <v>8.038037157058715</v>
+        <v>8.011121082305909</v>
       </c>
       <c r="E27">
-        <v>1.115110669694158</v>
+        <v>1.111394631245079</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.7115384615384616</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="K27">
-        <v>0.7355769230769231</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="L27">
-        <v>0.6811594202898551</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="M27">
-        <v>0.6763285024154589</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="N27">
-        <v>0.7294685990338164</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O27">
-        <v>0.706814381270903</v>
+        <v>0.712360646599777</v>
       </c>
       <c r="P27">
-        <v>0.02429148064855165</v>
+        <v>0.0176110183987508</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1093.799873638153</v>
+        <v>1086.591847229004</v>
       </c>
       <c r="C28">
-        <v>157.9378601924387</v>
+        <v>149.6206400146265</v>
       </c>
       <c r="D28">
-        <v>2.359529304504394</v>
+        <v>2.540253591537476</v>
       </c>
       <c r="E28">
-        <v>1.675762009940624</v>
+        <v>1.813856459669751</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.7163461538461539</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="K28">
-        <v>0.7355769230769231</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L28">
         <v>0.6908212560386473</v>
       </c>
       <c r="M28">
-        <v>0.6763285024154589</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="N28">
-        <v>0.7198067632850241</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="O28">
-        <v>0.7077759197324415</v>
+        <v>0.7123560014864363</v>
       </c>
       <c r="P28">
-        <v>0.02129547638907641</v>
+        <v>0.01742291796774336</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
